--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H2">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J2">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>14.48396240817078</v>
+        <v>18.76465591387733</v>
       </c>
       <c r="R2">
-        <v>14.48396240817078</v>
+        <v>168.881903224896</v>
       </c>
       <c r="S2">
-        <v>0.002964430280307902</v>
+        <v>0.003306804168795409</v>
       </c>
       <c r="T2">
-        <v>0.002964430280307902</v>
+        <v>0.003306804168795408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H3">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J3">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>258.8945312587383</v>
+        <v>287.2544432815469</v>
       </c>
       <c r="R3">
-        <v>258.8945312587383</v>
+        <v>2585.289989533922</v>
       </c>
       <c r="S3">
-        <v>0.05298790249804654</v>
+        <v>0.05062145529915806</v>
       </c>
       <c r="T3">
-        <v>0.05298790249804654</v>
+        <v>0.05062145529915806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H4">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J4">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>653.2587822879721</v>
+        <v>819.0445337338331</v>
       </c>
       <c r="R4">
-        <v>653.2587822879721</v>
+        <v>7371.400803604499</v>
       </c>
       <c r="S4">
-        <v>0.1337023709754369</v>
+        <v>0.1443362399508284</v>
       </c>
       <c r="T4">
-        <v>0.1337023709754369</v>
+        <v>0.1443362399508284</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H5">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J5">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>721.8958244405309</v>
+        <v>808.8976405515803</v>
       </c>
       <c r="R5">
-        <v>721.8958244405309</v>
+        <v>7280.078764964223</v>
       </c>
       <c r="S5">
-        <v>0.1477503034661366</v>
+        <v>0.1425481022503881</v>
       </c>
       <c r="T5">
-        <v>0.1477503034661366</v>
+        <v>0.1425481022503881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H6">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J6">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>1137.424568051654</v>
+        <v>1307.621854752412</v>
       </c>
       <c r="R6">
-        <v>1137.424568051654</v>
+        <v>11768.59669277171</v>
       </c>
       <c r="S6">
-        <v>0.2327965052709838</v>
+        <v>0.2304358481364652</v>
       </c>
       <c r="T6">
-        <v>0.2327965052709838</v>
+        <v>0.2304358481364652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.0326431864256</v>
+        <v>15.41482866666667</v>
       </c>
       <c r="H7">
-        <v>14.0326431864256</v>
+        <v>46.244486</v>
       </c>
       <c r="I7">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="J7">
-        <v>0.6317436461445349</v>
+        <v>0.6468072013652575</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>300.6898007616881</v>
+        <v>428.7626064094804</v>
       </c>
       <c r="R7">
-        <v>300.6898007616881</v>
+        <v>3858.863457685324</v>
       </c>
       <c r="S7">
-        <v>0.06154213365362309</v>
+        <v>0.0755587515596223</v>
       </c>
       <c r="T7">
-        <v>0.06154213365362309</v>
+        <v>0.0755587515596223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H8">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J8">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>0.0900211563302187</v>
+        <v>0.1684938347093333</v>
       </c>
       <c r="R8">
-        <v>0.0900211563302187</v>
+        <v>1.516444512384</v>
       </c>
       <c r="S8">
-        <v>1.842461573520021E-05</v>
+        <v>2.969285008957134E-05</v>
       </c>
       <c r="T8">
-        <v>1.842461573520021E-05</v>
+        <v>2.969285008957134E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H9">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J9">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>1.609089033421825</v>
+        <v>2.579349331420889</v>
       </c>
       <c r="R9">
-        <v>1.609089033421825</v>
+        <v>23.214143982788</v>
       </c>
       <c r="S9">
-        <v>0.0003293319963117368</v>
+        <v>0.0004545462043678805</v>
       </c>
       <c r="T9">
-        <v>0.0003293319963117368</v>
+        <v>0.0004545462043678805</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H10">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J10">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>4.060153520645651</v>
+        <v>7.354462289099111</v>
       </c>
       <c r="R10">
-        <v>4.060153520645651</v>
+        <v>66.190160601892</v>
       </c>
       <c r="S10">
-        <v>0.0008309909747149619</v>
+        <v>0.001296041167419221</v>
       </c>
       <c r="T10">
-        <v>0.0008309909747149619</v>
+        <v>0.001296041167419221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H11">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J11">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>4.486748517755951</v>
+        <v>7.263350096554222</v>
       </c>
       <c r="R11">
-        <v>4.486748517755951</v>
+        <v>65.37015086898801</v>
       </c>
       <c r="S11">
-        <v>0.0009183021048617949</v>
+        <v>0.001279984908273392</v>
       </c>
       <c r="T11">
-        <v>0.0009183021048617949</v>
+        <v>0.001279984908273392</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H12">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J12">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>7.069355192239887</v>
+        <v>11.74155399748222</v>
       </c>
       <c r="R12">
-        <v>7.069355192239887</v>
+        <v>105.67398597734</v>
       </c>
       <c r="S12">
-        <v>0.001446883801790706</v>
+        <v>0.002069157030387976</v>
       </c>
       <c r="T12">
-        <v>0.001446883801790706</v>
+        <v>0.002069157030387977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08721610360565241</v>
+        <v>0.1384146666666667</v>
       </c>
       <c r="H13">
-        <v>0.08721610360565241</v>
+        <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.003926432003035132</v>
+        <v>0.005807888307456049</v>
       </c>
       <c r="J13">
-        <v>0.003926432003035132</v>
+        <v>0.00580788830745605</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N13">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q13">
-        <v>1.868856242405064</v>
+        <v>3.849996294388444</v>
       </c>
       <c r="R13">
-        <v>1.868856242405064</v>
+        <v>34.649966649496</v>
       </c>
       <c r="S13">
-        <v>0.000382498509620731</v>
+        <v>0.0006784661469180088</v>
       </c>
       <c r="T13">
-        <v>0.000382498509620731</v>
+        <v>0.0006784661469180089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H14">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J14">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N14">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q14">
-        <v>1.656550446507429</v>
+        <v>1.970507569173333</v>
       </c>
       <c r="R14">
-        <v>1.656550446507429</v>
+        <v>17.73456812256</v>
       </c>
       <c r="S14">
-        <v>0.0003390459161723542</v>
+        <v>0.0003472529778479093</v>
       </c>
       <c r="T14">
-        <v>0.0003390459161723542</v>
+        <v>0.0003472529778479092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H15">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J15">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N15">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q15">
-        <v>29.61011905920556</v>
+        <v>30.16506443618555</v>
       </c>
       <c r="R15">
-        <v>29.61011905920556</v>
+        <v>271.48557992567</v>
       </c>
       <c r="S15">
-        <v>0.006060298354068757</v>
+        <v>0.005315842789091101</v>
       </c>
       <c r="T15">
-        <v>0.006060298354068757</v>
+        <v>0.005315842789091101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H16">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J16">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N16">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q16">
-        <v>74.71409390524013</v>
+        <v>86.00922183811444</v>
       </c>
       <c r="R16">
-        <v>74.71409390524013</v>
+        <v>774.08299654303</v>
       </c>
       <c r="S16">
-        <v>0.01529172170548556</v>
+        <v>0.01515698740411154</v>
       </c>
       <c r="T16">
-        <v>0.01529172170548556</v>
+        <v>0.01515698740411154</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H17">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I17">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J17">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N17">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q17">
-        <v>82.56420560952273</v>
+        <v>84.94367979401889</v>
       </c>
       <c r="R17">
-        <v>82.56420560952273</v>
+        <v>764.4931181461701</v>
       </c>
       <c r="S17">
-        <v>0.01689840281830362</v>
+        <v>0.01496921210518714</v>
       </c>
       <c r="T17">
-        <v>0.01689840281830362</v>
+        <v>0.01496921210518714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H18">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I18">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J18">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N18">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q18">
-        <v>130.0887922086542</v>
+        <v>137.3155348135389</v>
       </c>
       <c r="R18">
-        <v>130.0887922086542</v>
+        <v>1235.83981332185</v>
       </c>
       <c r="S18">
-        <v>0.02662525239187781</v>
+        <v>0.02419844973687855</v>
       </c>
       <c r="T18">
-        <v>0.02662525239187781</v>
+        <v>0.02419844973687855</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.60493245432888</v>
+        <v>1.618736666666667</v>
       </c>
       <c r="H19">
-        <v>1.60493245432888</v>
+        <v>4.85621</v>
       </c>
       <c r="I19">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="J19">
-        <v>0.07225337857191581</v>
+        <v>0.06792229454862958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N19">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P19">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q19">
-        <v>34.39030078060745</v>
+        <v>45.02507081323778</v>
       </c>
       <c r="R19">
-        <v>34.39030078060745</v>
+        <v>405.22563731914</v>
       </c>
       <c r="S19">
-        <v>0.007038657386007705</v>
+        <v>0.007934549535513346</v>
       </c>
       <c r="T19">
-        <v>0.007038657386007705</v>
+        <v>0.007934549535513346</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H20">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J20">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N20">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P20">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q20">
-        <v>4.363255349959102</v>
+        <v>5.315494696437334</v>
       </c>
       <c r="R20">
-        <v>4.363255349959102</v>
+        <v>47.839452267936</v>
       </c>
       <c r="S20">
-        <v>0.0008930267778682918</v>
+        <v>0.0009367238121531252</v>
       </c>
       <c r="T20">
-        <v>0.0008930267778682918</v>
+        <v>0.000936723812153125</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H21">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J21">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N21">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P21">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q21">
-        <v>77.99129249000218</v>
+        <v>81.37103482200855</v>
       </c>
       <c r="R21">
-        <v>77.99129249000218</v>
+        <v>732.339313398077</v>
       </c>
       <c r="S21">
-        <v>0.01596246541811563</v>
+        <v>0.0143396222346725</v>
       </c>
       <c r="T21">
-        <v>0.01596246541811563</v>
+        <v>0.0143396222346725</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H22">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I22">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J22">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N22">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P22">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q22">
-        <v>196.7924795992162</v>
+        <v>232.0120813933215</v>
       </c>
       <c r="R22">
-        <v>196.7924795992162</v>
+        <v>2088.108732539893</v>
       </c>
       <c r="S22">
-        <v>0.04027748547121976</v>
+        <v>0.04088636218450142</v>
       </c>
       <c r="T22">
-        <v>0.04027748547121976</v>
+        <v>0.04088636218450142</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H23">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I23">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J23">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N23">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P23">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q23">
-        <v>217.4692069296169</v>
+        <v>229.1377544062919</v>
       </c>
       <c r="R23">
-        <v>217.4692069296169</v>
+        <v>2062.239789656627</v>
       </c>
       <c r="S23">
-        <v>0.04450938796230409</v>
+        <v>0.04037983350063884</v>
       </c>
       <c r="T23">
-        <v>0.04450938796230409</v>
+        <v>0.04037983350063883</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H24">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I24">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J24">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N24">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P24">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q24">
-        <v>342.6461414265073</v>
+        <v>370.4121762628039</v>
       </c>
       <c r="R24">
-        <v>342.6461414265073</v>
+        <v>3333.709586365236</v>
       </c>
       <c r="S24">
-        <v>0.07012933121825772</v>
+        <v>0.06527593867215885</v>
       </c>
       <c r="T24">
-        <v>0.07012933121825772</v>
+        <v>0.06527593867215885</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.22729662862825</v>
+        <v>4.366583666666667</v>
       </c>
       <c r="H25">
-        <v>4.22729662862825</v>
+        <v>13.099751</v>
       </c>
       <c r="I25">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="J25">
-        <v>0.1903111017664491</v>
+        <v>0.1832221312372622</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N25">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P25">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q25">
-        <v>90.58200683477655</v>
+        <v>121.4562830707038</v>
       </c>
       <c r="R25">
-        <v>90.58200683477655</v>
+        <v>1093.106547636334</v>
       </c>
       <c r="S25">
-        <v>0.01853940491868355</v>
+        <v>0.02140365083313747</v>
       </c>
       <c r="T25">
-        <v>0.01853940491868355</v>
+        <v>0.02140365083313747</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H26">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J26">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N26">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P26">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q26">
-        <v>0.9167812349476905</v>
+        <v>1.091977962250667</v>
       </c>
       <c r="R26">
-        <v>0.9167812349476905</v>
+        <v>9.827801660256</v>
       </c>
       <c r="S26">
-        <v>0.0001876374694098807</v>
+        <v>0.0001924339723774391</v>
       </c>
       <c r="T26">
-        <v>0.0001876374694098807</v>
+        <v>0.0001924339723774391</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H27">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I27">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J27">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N27">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P27">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q27">
-        <v>16.38706601134883</v>
+        <v>16.71629488234078</v>
       </c>
       <c r="R27">
-        <v>16.38706601134883</v>
+        <v>150.446653941067</v>
       </c>
       <c r="S27">
-        <v>0.003353938191806037</v>
+        <v>0.002945831453421832</v>
       </c>
       <c r="T27">
-        <v>0.003353938191806037</v>
+        <v>0.002945831453421832</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H28">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I28">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J28">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N28">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P28">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q28">
-        <v>41.34886409457533</v>
+        <v>47.66293531008922</v>
       </c>
       <c r="R28">
-        <v>41.34886409457533</v>
+        <v>428.966417790803</v>
       </c>
       <c r="S28">
-        <v>0.00846286543170998</v>
+        <v>0.008399407583267623</v>
       </c>
       <c r="T28">
-        <v>0.00846286543170998</v>
+        <v>0.008399407583267623</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H29">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I29">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J29">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N29">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P29">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q29">
-        <v>45.69333493028268</v>
+        <v>47.07245372645745</v>
       </c>
       <c r="R29">
-        <v>45.69333493028268</v>
+        <v>423.652083538117</v>
       </c>
       <c r="S29">
-        <v>0.009352047586036765</v>
+        <v>0.008295349881846813</v>
       </c>
       <c r="T29">
-        <v>0.009352047586036765</v>
+        <v>0.008295349881846813</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H30">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I30">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J30">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N30">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P30">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q30">
-        <v>71.99476709287684</v>
+        <v>76.09488044440944</v>
       </c>
       <c r="R30">
-        <v>71.99476709287684</v>
+        <v>684.853923999685</v>
       </c>
       <c r="S30">
-        <v>0.01473515751970202</v>
+        <v>0.01340983117582607</v>
       </c>
       <c r="T30">
-        <v>0.01473515751970202</v>
+        <v>0.01340983117582607</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.888214397931201</v>
+        <v>0.8970403333333333</v>
       </c>
       <c r="H31">
-        <v>0.888214397931201</v>
+        <v>2.691121</v>
       </c>
       <c r="I31">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="J31">
-        <v>0.03998703557501767</v>
+        <v>0.03763987002786177</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N31">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P31">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q31">
-        <v>19.03255194331108</v>
+        <v>24.95112723543489</v>
       </c>
       <c r="R31">
-        <v>19.03255194331108</v>
+        <v>224.560145118914</v>
       </c>
       <c r="S31">
-        <v>0.003895389376352981</v>
+        <v>0.004397015961121988</v>
       </c>
       <c r="T31">
-        <v>0.003895389376352981</v>
+        <v>0.004397015961121988</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H32">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I32">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J32">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N32">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P32">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q32">
-        <v>1.416391149667633</v>
+        <v>1.700074404501333</v>
       </c>
       <c r="R32">
-        <v>1.416391149667633</v>
+        <v>15.300669640512</v>
       </c>
       <c r="S32">
-        <v>0.0002898925511202794</v>
+        <v>0.000299595854774496</v>
       </c>
       <c r="T32">
-        <v>0.0002898925511202794</v>
+        <v>0.000299595854774496</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H33">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I33">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J33">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N33">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P33">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q33">
-        <v>25.317376035536</v>
+        <v>26.02520018718155</v>
       </c>
       <c r="R33">
-        <v>25.317376035536</v>
+        <v>234.226801684634</v>
       </c>
       <c r="S33">
-        <v>0.005181703322796945</v>
+        <v>0.004586294620465781</v>
       </c>
       <c r="T33">
-        <v>0.005181703322796945</v>
+        <v>0.004586294620465781</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H34">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I34">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J34">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N34">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P34">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q34">
-        <v>63.88237773617597</v>
+        <v>74.20528542267844</v>
       </c>
       <c r="R34">
-        <v>63.88237773617597</v>
+        <v>667.847568804106</v>
       </c>
       <c r="S34">
-        <v>0.01307479608151677</v>
+        <v>0.01307683702320886</v>
       </c>
       <c r="T34">
-        <v>0.01307479608151677</v>
+        <v>0.01307683702320886</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H35">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I35">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J35">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N35">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P35">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q35">
-        <v>70.59441525081395</v>
+        <v>73.2859787504149</v>
       </c>
       <c r="R35">
-        <v>70.59441525081395</v>
+        <v>659.5738087537341</v>
       </c>
       <c r="S35">
-        <v>0.01444854773111583</v>
+        <v>0.01291483207357404</v>
       </c>
       <c r="T35">
-        <v>0.01444854773111583</v>
+        <v>0.01291483207357404</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H36">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I36">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J36">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N36">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P36">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q36">
-        <v>111.2290992065862</v>
+        <v>118.4703016263189</v>
       </c>
       <c r="R36">
-        <v>111.2290992065862</v>
+        <v>1066.23271463687</v>
       </c>
       <c r="S36">
-        <v>0.02276524202751079</v>
+        <v>0.02087744582657855</v>
       </c>
       <c r="T36">
-        <v>0.02276524202751079</v>
+        <v>0.02087744582657855</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.37225650382002</v>
+        <v>1.396580666666667</v>
       </c>
       <c r="H37">
-        <v>1.37225650382002</v>
+        <v>4.189742</v>
       </c>
       <c r="I37">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="J37">
-        <v>0.06177840593904761</v>
+        <v>0.05860061451353307</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N37">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P37">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q37">
-        <v>29.40454832677009</v>
+        <v>38.84581396586978</v>
       </c>
       <c r="R37">
-        <v>29.40454832677009</v>
+        <v>349.612325692828</v>
       </c>
       <c r="S37">
-        <v>0.006018224224986992</v>
+        <v>0.006845609114931347</v>
       </c>
       <c r="T37">
-        <v>0.006018224224986992</v>
+        <v>0.006845609114931347</v>
       </c>
     </row>
   </sheetData>
